--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -488,32 +488,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12312</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1231</t>
         </is>
       </c>
     </row>

--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -478,42 +478,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12312</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3123</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>12</t>
         </is>
       </c>
     </row>

--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,46 +474,56 @@
           <t>单位</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>公司</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,53 +480,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,53 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,53 +480,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1212</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/input/manual/temp_manual_input_data.xlsx
+++ b/src/data/input/manual/temp_manual_input_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,37 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
